--- a/2024_2025_proj_auto_avaliacao.xlsx
+++ b/2024_2025_proj_auto_avaliacao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Desktop/Universidade/Computer-Networks-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D879B391-3EDA-3E43-81B9-EE54CCA9C3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB9C07-98F5-5F4B-A0F1-8559CD1F9D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>Ficha de autoavaliação</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>RC11L04</t>
+  </si>
+  <si>
+    <t>TO DO</t>
   </si>
 </sst>
 </file>
@@ -921,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="194" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -983,7 +986,7 @@
       </c>
       <c r="B7" s="15">
         <f>B8+F8</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C7" s="7">
         <f>C8+G8</f>
@@ -1001,7 +1004,7 @@
       </c>
       <c r="B8" s="7">
         <f>SUM(B9:B23)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7">
         <f>SUM(C9:C23)</f>
@@ -1012,7 +1015,7 @@
       </c>
       <c r="F8" s="7">
         <f>SUM(F9:F23)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G8" s="7">
         <f>SUM(G9:G23)</f>
@@ -1023,14 +1026,18 @@
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
@@ -1039,14 +1046,18 @@
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="11">
+        <v>1.5</v>
+      </c>
       <c r="C10" s="4">
         <v>1.5</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="11">
+        <v>1.5</v>
+      </c>
       <c r="G10" s="4">
         <v>1.5</v>
       </c>
@@ -1055,14 +1066,18 @@
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8">
+        <v>0.5</v>
+      </c>
       <c r="C11" s="4">
         <v>0.5</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
       <c r="G11" s="4">
         <v>1</v>
       </c>
@@ -1071,14 +1086,18 @@
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
       <c r="C12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8">
+        <v>0.5</v>
+      </c>
       <c r="G12" s="4">
         <v>0.5</v>
       </c>
@@ -1097,14 +1116,18 @@
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="11">
+        <v>1.25</v>
+      </c>
       <c r="C14" s="4">
         <v>1.5</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11">
+        <v>1.25</v>
+      </c>
       <c r="G14" s="4">
         <v>1.5</v>
       </c>
@@ -1139,14 +1162,18 @@
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="11">
+        <v>1.5</v>
+      </c>
       <c r="C18" s="4">
         <v>1.5</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="11">
+        <v>1.5</v>
+      </c>
       <c r="G18" s="4">
         <v>1.5</v>
       </c>
@@ -1155,14 +1182,18 @@
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="11">
+        <v>1.5</v>
+      </c>
       <c r="C19" s="4">
         <v>1.5</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
       <c r="G19" s="4">
         <v>1</v>
       </c>
@@ -1180,14 +1211,18 @@
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="11">
+        <v>1.75</v>
+      </c>
       <c r="C21" s="4">
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="11">
+        <v>1.25</v>
+      </c>
       <c r="G21" s="4">
         <v>1.5</v>
       </c>
@@ -1198,7 +1233,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+      <c r="A25" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
@@ -1280,21 +1317,27 @@
       <c r="A35" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="8"/>
+      <c r="B35" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="8"/>
+      <c r="B36" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="8"/>
+      <c r="B37" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1307,42 +1350,54 @@
       <c r="A39" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="8"/>
+      <c r="B39" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="8"/>
+      <c r="B40" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="8"/>
+      <c r="B41" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="8"/>
+      <c r="B42" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="8"/>
+      <c r="B43" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="8"/>
+      <c r="B44" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G44" s="4"/>
     </row>
   </sheetData>

--- a/2024_2025_proj_auto_avaliacao.xlsx
+++ b/2024_2025_proj_auto_avaliacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Desktop/Universidade/Computer-Networks-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB9C07-98F5-5F4B-A0F1-8559CD1F9D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3A29F6-C552-D840-A76B-B412CE06E424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Autoavaliação" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>Ficha de autoavaliação</t>
   </si>
@@ -379,9 +379,6 @@
   </si>
   <si>
     <t>RC11L04</t>
-  </si>
-  <si>
-    <t>TO DO</t>
   </si>
 </sst>
 </file>
@@ -924,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="194" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="194" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -986,7 +983,7 @@
       </c>
       <c r="B7" s="15">
         <f>B8+F8</f>
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="C7" s="7">
         <f>C8+G8</f>
@@ -1004,7 +1001,7 @@
       </c>
       <c r="B8" s="7">
         <f>SUM(B9:B23)</f>
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="C8" s="7">
         <f>SUM(C9:C23)</f>
@@ -1015,7 +1012,7 @@
       </c>
       <c r="F8" s="7">
         <f>SUM(F9:F23)</f>
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="G8" s="7">
         <f>SUM(G9:G23)</f>
@@ -1212,7 +1209,7 @@
         <v>58</v>
       </c>
       <c r="B21" s="11">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
@@ -1221,7 +1218,7 @@
         <v>65</v>
       </c>
       <c r="F21" s="11">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="G21" s="4">
         <v>1.5</v>
@@ -1233,9 +1230,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>76</v>
-      </c>
+      <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
